--- a/_resource/excel/table/D-掉落-掉落配置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/table/D-掉落-掉落配置-(框架定义,策划填写).xlsx
@@ -925,7 +925,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/_resource/excel/table/D-掉落-掉落配置-(框架定义,策划填写).xlsx
+++ b/_resource/excel/table/D-掉落-掉落配置-(框架定义,策划填写).xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26310" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dropgroup" sheetId="1" r:id="rId1"/>
+    <sheet name="dropgroup" sheetId="2" r:id="rId1"/>
+    <sheet name="dropdata" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -253,46 +254,214 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>刘小兵(橘右京)</author>
+    <author>PCC</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>key=Id     列表字段主键( 不填的话, 表示没有key, 用0代替 )
+channel=0   是否区分渠道, 默认不区分
+repeat=1  表示字段id可以重复
+cpp=xxxx cpp生成的类名( 不填表示不生成 )
+lua=xxxx lua生成的类名
+c#=xxx c#生成的类名
+xml=xxxx 生成的xml文件名</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+掉落包id
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+该项的权重值, 所有的权重值加起来算概率</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+掉落的属性,
+drop 掉落对应另外的掉落id 在value里面填写数值
+其他都是玩家身上的属性 如:money item diamond等
+item 道具
+money 金币
+exp 英雄经验
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+掉落的具体数值
+支持范围 如 100-200</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>PCC:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果是道具 或者其他需要id的属性
+, 填入该id</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>描述</t>
   </si>
   <si>
-    <t>掉落id</t>
-  </si>
-  <si>
-    <t>数据组id</t>
+    <t>掉落数据组id</t>
+  </si>
+  <si>
+    <t>掉落逻辑名</t>
+  </si>
+  <si>
+    <t>掉落属性名</t>
+  </si>
+  <si>
+    <t>掉落的数值</t>
+  </si>
+  <si>
+    <t>掉落的id</t>
   </si>
   <si>
     <t>概率/权重</t>
   </si>
   <si>
-    <t>是否纪录掉落次数</t>
-  </si>
-  <si>
-    <t>是否重置掉落次数</t>
-  </si>
-  <si>
-    <t>条件类型</t>
-  </si>
-  <si>
-    <t>随机的条件</t>
-  </si>
-  <si>
-    <t>测试道具1</t>
-  </si>
-  <si>
-    <t>测试道具2</t>
-  </si>
-  <si>
-    <t>测试道具3</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>100-200</t>
+  </si>
+  <si>
+    <t>xml=dropgroup</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>key=Int,Id</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>repeat=1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>cpp</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -301,6 +470,18 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>bool</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>staticcondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>csharp</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -309,6 +490,28 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>掉落id</t>
+  </si>
+  <si>
+    <t>随机类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据组id</t>
+  </si>
+  <si>
+    <t>是否纪录掉落次数</t>
+  </si>
+  <si>
+    <t>是否重置掉落次数</t>
+  </si>
+  <si>
+    <t>条件类型</t>
+  </si>
+  <si>
+    <t>随机的条件</t>
+  </si>
+  <si>
     <t>Description</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -345,27 +548,48 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
+    <t>测试道具1</t>
+  </si>
+  <si>
+    <t>测试道具2</t>
+  </si>
+  <si>
+    <t>测试道具3</t>
+  </si>
+  <si>
+    <t>xml=dropdata</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>bool</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>staticcondition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeat=1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml=dropgroup</t>
+    <t>Description</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>随机类型</t>
+    <t>LogicName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropValue</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DropKey</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weight</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -439,9 +663,9 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -454,9 +678,9 @@
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -515,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -523,19 +747,25 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -543,11 +773,20 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,9 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -936,7 +1174,7 @@
     <col min="4" max="4" width="15.125" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="4" customWidth="1"/>
     <col min="6" max="6" width="19.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.875" style="14" customWidth="1"/>
     <col min="8" max="8" width="18.25" style="4" customWidth="1"/>
     <col min="9" max="9" width="23.75" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.75" style="4" customWidth="1"/>
@@ -951,146 +1189,146 @@
     <col min="20" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>24</v>
+      <c r="E7" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -1116,7 +1354,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
@@ -1142,7 +1380,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
@@ -1231,6 +1469,265 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="4" customWidth="1"/>
+    <col min="8" max="9" width="17.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="4" customWidth="1"/>
+    <col min="14" max="14" width="19.625" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4">
+        <v>100</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4">
+        <v>200</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
